--- a/Workshop/WS2/Workshop2.xlsx
+++ b/Workshop/WS2/Workshop2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84333\Documents\GitHub\project0\Workshop\WS2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23028" windowHeight="9936"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -751,18 +756,15 @@
   <si>
     <t>In this article, we have seen that the product backlog is the list of requirements for the system. It is the central focus of a Scrum team, representing the features that the team will build into the product. The product owner defines and prioritizes the PBIs. Each PBI stores the details of one product feature. It describes its business benefit, test cases, and acceptance criteria.</t>
   </si>
+  <si>
+    <t>fghjk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,14 +810,14 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="0" tint="-0.05"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Cambria"/>
       <charset val="163"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.05"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Cambria"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -823,7 +825,7 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="6" tint="-0.25"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Cambria"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -838,169 +840,25 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="3" tint="-0.25"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Cambria"/>
       <charset val="163"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="3" tint="-0.25"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Cambria"/>
       <charset val="163"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,19 +873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,198 +897,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1327,254 +1005,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1592,10 +1028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,189 +1046,151 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2079,57 +1477,57 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.8518518518519" customWidth="1"/>
-    <col min="3" max="3" width="23.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="20.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="14.1388888888889" customWidth="1"/>
-    <col min="6" max="6" width="10.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="15.5740740740741" customWidth="1"/>
-    <col min="9" max="9" width="15.712962962963" customWidth="1"/>
-    <col min="10" max="10" width="16.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" ht="29.25" customHeight="1" spans="1:10">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="4" ht="52.2" spans="1:10">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="4" spans="1:13" ht="52.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2161,1217 +1559,1217 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:10">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:13" ht="33" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="41">
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19">
         <v>7</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="41"/>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:10">
-      <c r="A6" s="41" t="s">
+      <c r="J5" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="41">
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="19">
         <v>7</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" ht="31" customHeight="1" spans="1:10">
-      <c r="A7" s="43" t="s">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.05" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="41" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="27" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="41">
+      <c r="G8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19">
         <v>7</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" ht="23" customHeight="1" spans="1:10">
-      <c r="A9" s="41" t="s">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.95" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="45">
+      <c r="C9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="45">
+      <c r="G9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="21">
         <v>7</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" ht="22" customHeight="1" spans="1:10">
-      <c r="A10" s="41" t="s">
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.05" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="41">
+      <c r="G10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="19">
         <v>7</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" ht="30" spans="1:10">
-      <c r="A11" s="41" t="s">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="30">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="45">
+      <c r="E11" s="19"/>
+      <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="41">
+      <c r="G11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="19">
         <v>7</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" ht="30" spans="1:10">
-      <c r="A12" s="41" t="s">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="G12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="19">
         <v>7</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" ht="30" spans="1:10">
-      <c r="A13" s="41" t="s">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="30">
+      <c r="A13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="45">
+      <c r="C13" s="19"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21">
         <v>1</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="41">
+      <c r="G13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="19">
         <v>7</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" ht="30" spans="1:13">
-      <c r="A14" s="41" t="s">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41">
+      <c r="C14" s="19"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="41">
+      <c r="G14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="19">
         <v>7</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="M14" s="55"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:10">
-      <c r="A15" s="41" t="s">
+      <c r="J14" s="19"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="45">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="41">
+      <c r="G15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="19">
         <v>8</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" ht="19" customHeight="1" spans="1:11">
-      <c r="A16" s="41" t="s">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.05" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="41">
+      <c r="G16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="19">
         <v>8</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:10">
-      <c r="A17" s="49" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="57"/>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:10">
-      <c r="A18" s="41" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="39" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="19">
         <v>2</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="G18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="19">
         <v>8</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A19" s="41" t="s">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="19">
         <v>2</v>
       </c>
-      <c r="G19" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="41">
+      <c r="G19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="19">
         <v>8</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:10">
-      <c r="A20" s="41" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="36" customHeight="1">
+      <c r="A20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
         <v>2</v>
       </c>
-      <c r="G20" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="41">
+      <c r="G20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="19">
         <v>8</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:10">
-      <c r="A21" s="41" t="s">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="36" customHeight="1">
+      <c r="A21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41">
+      <c r="C21" s="19"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="41">
+      <c r="G21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="19">
         <v>8</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" ht="42" customHeight="1" spans="1:10">
-      <c r="A22" s="41" t="s">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41">
+      <c r="C22" s="19"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
         <v>2</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="41">
+      <c r="G22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="19">
         <v>8</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="1:10">
-      <c r="A23" s="41" t="s">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" ht="24" customHeight="1">
+      <c r="A23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="41">
+      <c r="G23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="19">
         <v>8</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:10">
-      <c r="A24" s="41" t="s">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" ht="36" customHeight="1">
+      <c r="A24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19">
         <v>2</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="41">
+      <c r="G24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="19">
         <v>8</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="41" t="s">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.95" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19">
         <v>2</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="41">
+      <c r="G25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="19">
         <v>12</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:10">
-      <c r="A26" s="41" t="s">
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1">
+      <c r="A26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="41">
+      <c r="G26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="19">
         <v>12</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="1:10">
-      <c r="A27" s="51" t="s">
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" ht="36" customHeight="1">
+      <c r="A27" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" ht="32" customHeight="1" spans="1:10">
-      <c r="A28" s="41" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="31.95" customHeight="1">
+      <c r="A28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="19">
         <v>3</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="41">
+      <c r="G28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="19">
         <v>8</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" ht="21" customHeight="1" spans="1:10">
-      <c r="A29" s="41" t="s">
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" customHeight="1">
+      <c r="A29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="F29" s="41">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="F29" s="19">
         <v>3</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="41">
+      <c r="G29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="19">
         <v>8</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" ht="36" customHeight="1" spans="1:10">
-      <c r="A30" s="41" t="s">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" ht="36" customHeight="1">
+      <c r="A30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19">
         <v>3</v>
       </c>
-      <c r="G30" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="41">
+      <c r="G30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="19">
         <v>8</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="41"/>
-    </row>
-    <row r="31" ht="52" customHeight="1" spans="1:10">
-      <c r="A31" s="41" t="s">
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" ht="52.05" customHeight="1">
+      <c r="A31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19">
         <v>3</v>
       </c>
-      <c r="G31" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="G31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="19">
         <v>8</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="41"/>
-    </row>
-    <row r="32" ht="36" customHeight="1" spans="1:10">
-      <c r="A32" s="41" t="s">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" ht="36" customHeight="1">
+      <c r="A32" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41">
+      <c r="C32" s="19"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
         <v>3</v>
       </c>
-      <c r="G32" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="41">
+      <c r="G32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="19">
         <v>8</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:10">
-      <c r="A33" s="41" t="s">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="39" customHeight="1">
+      <c r="A33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19">
         <v>3</v>
       </c>
-      <c r="G33" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="41">
+      <c r="G33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="19">
         <v>8</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" ht="39" customHeight="1" spans="1:10">
-      <c r="A34" s="41" t="s">
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="39" customHeight="1">
+      <c r="A34" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
         <v>3</v>
       </c>
-      <c r="G34" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="41">
+      <c r="G34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="19">
         <v>8</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="41"/>
-    </row>
-    <row r="35" ht="19" customHeight="1" spans="1:10">
-      <c r="A35" s="41" t="s">
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.05" customHeight="1">
+      <c r="A35" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19">
         <v>3</v>
       </c>
-      <c r="G35" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="41">
+      <c r="G35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="19">
         <v>12</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="41"/>
-    </row>
-    <row r="36" ht="21" customHeight="1" spans="1:10">
-      <c r="A36" s="41" t="s">
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1">
+      <c r="A36" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19">
         <v>3</v>
       </c>
-      <c r="G36" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="41">
+      <c r="G36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="19">
         <v>12</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" ht="15" spans="1:10">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-    </row>
-    <row r="38" ht="15" spans="1:10">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-    </row>
-    <row r="39" ht="15" spans="1:10">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" ht="15" spans="1:10">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="41" ht="15" spans="1:10">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" ht="15" spans="1:10">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" ht="15" spans="1:10">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" ht="15" spans="1:10">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" ht="15" spans="1:10">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" ht="15" spans="1:10">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" ht="15" spans="1:10">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" ht="15" spans="1:10">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-    </row>
-    <row r="49" ht="15" spans="1:10">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" ht="15" spans="1:10">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" ht="15" spans="1:10">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" ht="15" spans="1:10">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-    </row>
-    <row r="53" ht="15" spans="1:10">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-    </row>
-    <row r="54" ht="15" spans="1:10">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-    </row>
-    <row r="55" ht="15" spans="1:10">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-    </row>
-    <row r="56" ht="15" spans="1:10">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-    </row>
-    <row r="57" ht="15" spans="1:10">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-    </row>
-    <row r="58" ht="15" spans="1:10">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" ht="15" spans="1:10">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-    </row>
-    <row r="60" ht="15" spans="1:10">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-    </row>
-    <row r="61" ht="15" spans="1:10">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-    </row>
-    <row r="62" ht="15" spans="1:10">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" ht="15" spans="1:10">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" ht="15" spans="1:10">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-    </row>
-    <row r="65" ht="15" spans="1:10">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" ht="15" spans="1:10">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-    </row>
-    <row r="67" ht="15" spans="1:10">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-    </row>
-    <row r="68" ht="15" spans="1:10">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-    </row>
-    <row r="69" ht="15" spans="1:10">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-    </row>
-    <row r="70" ht="15" spans="1:10">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-    </row>
-    <row r="71" ht="15" spans="1:10">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-    </row>
-    <row r="72" ht="15" spans="1:10">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" ht="15">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" ht="15">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" ht="15">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" ht="15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" ht="15">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" ht="15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" ht="15">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" ht="15">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" ht="15">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" ht="15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" ht="15">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:10" ht="15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10" ht="15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" ht="15">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+    </row>
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+    </row>
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" ht="15">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3380,52 +2778,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="28.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="38.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="47.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="13.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="17.4" spans="1:11">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" ht="17.399999999999999">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="34.8" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+    <row r="5" spans="1:11" ht="34.799999999999997">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="10" t="s">
         <v>90</v>
       </c>
@@ -3435,109 +2833,109 @@
       <c r="E5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" ht="46" customHeight="1" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="46.05" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" ht="42" customHeight="1" spans="1:11">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22" t="s">
+      <c r="J6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="42" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="15">
         <v>2</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" ht="46" customHeight="1" spans="1:11">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22" t="s">
+      <c r="J7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.05" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" ht="48" customHeight="1" spans="1:11">
-      <c r="A9" s="28" t="s">
+      <c r="J8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="48" customHeight="1">
+      <c r="A9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -3566,9 +2964,9 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:11">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
+    <row r="10" spans="1:11" ht="45" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="11" t="s">
         <v>93</v>
       </c>
@@ -3595,9 +2993,9 @@
       </c>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:11" ht="57" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
@@ -3624,70 +3022,76 @@
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" ht="69" customHeight="1" spans="1:11">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:11" ht="69" customHeight="1">
+      <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="17">
         <v>4</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="17">
         <v>3</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" ht="58" customHeight="1" spans="1:11">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="36" t="s">
+      <c r="J12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="58.05" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="17">
         <v>4</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="17">
         <v>3</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="36"/>
+      <c r="J13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -3697,21 +3101,13 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3720,41 +3116,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="40.712962962963" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="16.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="26.4259259259259" customWidth="1"/>
+    <col min="3" max="4" width="40.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="17.4" spans="1:9">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" ht="17.399999999999999">
+      <c r="A4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="34.8" spans="1:9">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:10" ht="34.799999999999997">
+      <c r="A5" s="60"/>
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
@@ -3764,13 +3160,13 @@
       <c r="D5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:9">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" ht="39" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -3795,7 +3191,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:9">
+    <row r="7" spans="1:10" ht="33" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -3820,7 +3216,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>33</v>
       </c>
@@ -3845,7 +3241,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" ht="49" customHeight="1" spans="1:9">
+    <row r="9" spans="1:10" ht="49.05" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>116</v>
       </c>
@@ -3870,7 +3266,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" ht="43" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="43.05" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -3895,7 +3291,7 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" ht="44" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="43.95" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>53</v>
       </c>
@@ -3921,7 +3317,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" ht="55" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="55.05" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>62</v>
       </c>
@@ -3947,7 +3343,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" ht="65" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="64.95" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>76</v>
       </c>
@@ -3973,7 +3369,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" ht="37" customHeight="1" spans="1:9">
+    <row r="14" spans="1:10" ht="37.049999999999997" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>81</v>
       </c>
@@ -3998,7 +3394,7 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" s="7" customFormat="1" ht="28" customHeight="1" spans="1:9">
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="28.05" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -4009,7 +3405,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" ht="53" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="52.95" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -4020,7 +3416,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" ht="27" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -4031,7 +3427,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" ht="115" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="115.05" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -4042,7 +3438,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" ht="46" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="46.05" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -4053,7 +3449,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" ht="29" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="28.95" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -4064,7 +3460,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="42" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -4075,7 +3471,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" ht="73" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="73.05" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -4086,7 +3482,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="25.05" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -4097,7 +3493,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" ht="122" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="121.95" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -4108,7 +3504,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" ht="52" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="52.05" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -4121,189 +3517,187 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
       <c r="B13" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
       <c r="B24" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
       <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
       <c r="B32" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
       <c r="B34" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
       <c r="B36" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
       <c r="B38" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
       <c r="B40" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4333,6 +3727,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>